--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H2">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I2">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J2">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N2">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q2">
-        <v>0.66068115106</v>
+        <v>0.241556414176</v>
       </c>
       <c r="R2">
-        <v>5.94613035954</v>
+        <v>2.174007727584</v>
       </c>
       <c r="S2">
-        <v>0.0002499191221228481</v>
+        <v>4.002531776038697E-05</v>
       </c>
       <c r="T2">
-        <v>0.000249919122122848</v>
+        <v>4.002531776038696E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H3">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I3">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J3">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P3">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q3">
-        <v>32.48269918964778</v>
+        <v>62.93913336304532</v>
       </c>
       <c r="R3">
-        <v>292.3442927068299</v>
+        <v>566.4522002674079</v>
       </c>
       <c r="S3">
-        <v>0.01228739105487221</v>
+        <v>0.0104288632575237</v>
       </c>
       <c r="T3">
-        <v>0.01228739105487221</v>
+        <v>0.01042886325752369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H4">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I4">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J4">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N4">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O4">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P4">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q4">
-        <v>0.06466979176</v>
+        <v>0.09427965971199999</v>
       </c>
       <c r="R4">
-        <v>0.58202812584</v>
+        <v>0.8485169374079998</v>
       </c>
       <c r="S4">
-        <v>2.446296153385919E-05</v>
+        <v>1.562191321305381E-05</v>
       </c>
       <c r="T4">
-        <v>2.446296153385918E-05</v>
+        <v>1.562191321305381E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1868766666666667</v>
+        <v>0.362096</v>
       </c>
       <c r="H5">
-        <v>0.56063</v>
+        <v>1.086288</v>
       </c>
       <c r="I5">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="J5">
-        <v>0.01256665704529768</v>
+        <v>0.01048575317613816</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N5">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O5">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P5">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q5">
-        <v>0.01291099743888889</v>
+        <v>0.007499732351999999</v>
       </c>
       <c r="R5">
-        <v>0.11619897695</v>
+        <v>0.067497591168</v>
       </c>
       <c r="S5">
-        <v>4.883906768765101E-06</v>
+        <v>1.242687641024267E-06</v>
       </c>
       <c r="T5">
-        <v>4.883906768765099E-06</v>
+        <v>1.242687641024267E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9.480822</v>
       </c>
       <c r="I6">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J6">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N6">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q6">
-        <v>11.172788455764</v>
+        <v>2.108237747044</v>
       </c>
       <c r="R6">
-        <v>100.555096101876</v>
+        <v>18.974139723396</v>
       </c>
       <c r="S6">
-        <v>0.004226385871685399</v>
+        <v>0.0003493299320066755</v>
       </c>
       <c r="T6">
-        <v>0.004226385871685398</v>
+        <v>0.0003493299320066754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9.480822</v>
       </c>
       <c r="I7">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J7">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P7">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q7">
         <v>549.3153935690112</v>
@@ -883,10 +883,10 @@
         <v>4943.838542121101</v>
       </c>
       <c r="S7">
-        <v>0.2077922470000458</v>
+        <v>0.09102024159976205</v>
       </c>
       <c r="T7">
-        <v>0.2077922470000458</v>
+        <v>0.09102024159976203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>9.480822</v>
       </c>
       <c r="I8">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J8">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N8">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O8">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P8">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q8">
-        <v>1.093631779344</v>
+        <v>0.8228468619279999</v>
       </c>
       <c r="R8">
-        <v>9.842686014096</v>
+        <v>7.405621757351999</v>
       </c>
       <c r="S8">
-        <v>0.0004136934946316929</v>
+        <v>0.0001363437490540365</v>
       </c>
       <c r="T8">
-        <v>0.0004136934946316928</v>
+        <v>0.0001363437490540365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>9.480822</v>
       </c>
       <c r="I9">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="J9">
-        <v>0.212514918184031</v>
+        <v>0.09151676111574511</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N9">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O9">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P9">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q9">
-        <v>0.2183380635366667</v>
+        <v>0.06545559508799999</v>
       </c>
       <c r="R9">
-        <v>1.96504257183</v>
+        <v>0.5891003557919999</v>
       </c>
       <c r="S9">
-        <v>8.259181766808249E-05</v>
+        <v>1.084583492236955E-05</v>
       </c>
       <c r="T9">
-        <v>8.259181766808245E-05</v>
+        <v>1.084583492236955E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H10">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I10">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J10">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N10">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q10">
-        <v>11.039040089536</v>
+        <v>14.34245234042867</v>
       </c>
       <c r="R10">
-        <v>99.35136080582402</v>
+        <v>129.082071063858</v>
       </c>
       <c r="S10">
-        <v>0.0041757922166077</v>
+        <v>0.002376509911140664</v>
       </c>
       <c r="T10">
-        <v>0.004175792216607698</v>
+        <v>0.002376509911140663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H11">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I11">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J11">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P11">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q11">
-        <v>542.7395923064497</v>
+        <v>3737.021530505274</v>
       </c>
       <c r="R11">
-        <v>4884.656330758048</v>
+        <v>33633.19377454747</v>
       </c>
       <c r="S11">
-        <v>0.2053047861785028</v>
+        <v>0.6192154935985237</v>
       </c>
       <c r="T11">
-        <v>0.2053047861785027</v>
+        <v>0.6192154935985235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H12">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I12">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J12">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N12">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O12">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P12">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q12">
-        <v>1.080540019456</v>
+        <v>5.597870504510666</v>
       </c>
       <c r="R12">
-        <v>9.724860175104</v>
+        <v>50.380834540596</v>
       </c>
       <c r="S12">
-        <v>0.0004087412099585148</v>
+        <v>0.000927553699986984</v>
       </c>
       <c r="T12">
-        <v>0.0004087412099585147</v>
+        <v>0.0009275536999869836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.122442666666667</v>
+        <v>21.49951033333333</v>
       </c>
       <c r="H13">
-        <v>9.367328000000001</v>
+        <v>64.498531</v>
       </c>
       <c r="I13">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953967</v>
       </c>
       <c r="J13">
-        <v>0.2099709227241037</v>
+        <v>0.6225933419953966</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N13">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O13">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P13">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q13">
-        <v>0.2157243597688889</v>
+        <v>0.445297858024</v>
       </c>
       <c r="R13">
-        <v>1.94151923792</v>
+        <v>4.007680722216</v>
       </c>
       <c r="S13">
-        <v>8.160311903473389E-05</v>
+        <v>7.378478574551185E-05</v>
       </c>
       <c r="T13">
-        <v>8.160311903473385E-05</v>
+        <v>7.378478574551184E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H14">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I14">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J14">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N14">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q14">
-        <v>29.70162745710201</v>
+        <v>6.344383306279332</v>
       </c>
       <c r="R14">
-        <v>267.3146471139181</v>
+        <v>57.09944975651399</v>
       </c>
       <c r="S14">
-        <v>0.01123538131485863</v>
+        <v>0.001051249078579652</v>
       </c>
       <c r="T14">
-        <v>0.01123538131485862</v>
+        <v>0.001051249078579652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H15">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I15">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J15">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>521.456741</v>
       </c>
       <c r="O15">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P15">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q15">
-        <v>1460.294468192584</v>
+        <v>1653.071347255771</v>
       </c>
       <c r="R15">
-        <v>13142.65021373326</v>
+        <v>14877.64212530194</v>
       </c>
       <c r="S15">
-        <v>0.5523928008934501</v>
+        <v>0.273909952588943</v>
       </c>
       <c r="T15">
-        <v>0.55239280089345</v>
+        <v>0.273909952588943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H16">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I16">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J16">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N16">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O16">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P16">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q16">
-        <v>2.907299624792</v>
+        <v>2.476217827785333</v>
       </c>
       <c r="R16">
-        <v>26.165696623128</v>
+        <v>22.285960450068</v>
       </c>
       <c r="S16">
-        <v>0.001099758588254498</v>
+        <v>0.0004103033477257604</v>
       </c>
       <c r="T16">
-        <v>0.001099758588254498</v>
+        <v>0.0004103033477257603</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.401240333333334</v>
+        <v>9.510307666666666</v>
       </c>
       <c r="H17">
-        <v>25.203721</v>
+        <v>28.530923</v>
       </c>
       <c r="I17">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="J17">
-        <v>0.5649475020465676</v>
+        <v>0.27540414371272</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N17">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O17">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P17">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q17">
-        <v>0.5804276925627779</v>
+        <v>0.196977492392</v>
       </c>
       <c r="R17">
-        <v>5.223849233065001</v>
+        <v>1.772797431528</v>
       </c>
       <c r="S17">
-        <v>0.0002195612500044006</v>
+        <v>3.263869747167879E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002195612500044005</v>
+        <v>3.263869747167879E-05</v>
       </c>
     </row>
   </sheetData>
